--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail5 Features.xlsx
@@ -4540,7 +4540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,29 +4551,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4594,115 +4592,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4719,72 +4707,66 @@
         <v>2.665356312007588e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.205142393152224</v>
+        <v>1.79809812156689e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.81158731170401</v>
+        <v>6.646198523992265e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.79809812156689e-07</v>
+        <v>0.08853766870617943</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.646198523992265e-07</v>
+        <v>0.3391473801113809</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08853766870617943</v>
+        <v>0.1225782813567639</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3391473801113809</v>
+        <v>1.942357601063786</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1225782813567639</v>
+        <v>2.176800373442592</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.962627752052275</v>
+        <v>4.355995239813749</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.176800373442592</v>
+        <v>1.228521838208442e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.355995239813749</v>
+        <v>3762289810.932551</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.228521838208442e-17</v>
+        <v>3.205271929423427e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3762289810.932551</v>
+        <v>173.8951116345805</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.205271929423427e-08</v>
+        <v>0.0001912550877514013</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>173.8951116345805</v>
+        <v>13.70062786260813</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001912550877514013</v>
+        <v>1.006385225268407</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.70062786260813</v>
+        <v>0.03589995774001452</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.006385225268407</v>
+        <v>3.270698165250512</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03589995774001452</v>
+        <v>0.9611233016220133</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.270698165250512</v>
+        <v>0.9901540600271466</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9611233016220133</v>
+        <v>128</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9901540600271466</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.327832809056826</v>
       </c>
     </row>
@@ -4799,72 +4781,66 @@
         <v>2.11283873191463e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.187246386588568</v>
+        <v>1.317410128465585e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.28558343983324</v>
+        <v>6.665917332209179e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.317410128465585e-07</v>
+        <v>0.07742016835175983</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.665917332209179e-07</v>
+        <v>0.3212121693019691</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07742016835175983</v>
+        <v>0.1089239172660794</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3212121693019691</v>
+        <v>1.94059248444458</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1089239172660794</v>
+        <v>2.091776173603447</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.959521192865055</v>
+        <v>4.217072900665259</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.091776173603447</v>
+        <v>1.813252947467419e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.217072900665259</v>
+        <v>2600061603.125543</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.813252947467419e-17</v>
+        <v>4.636903174336309e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2600061603.125543</v>
+        <v>122.5817078241556</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.636903174336309e-08</v>
+        <v>0.000207706501882921</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>122.5817078241556</v>
+        <v>13.34948027124779</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000207706501882921</v>
+        <v>1.008126552770916</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.34948027124779</v>
+        <v>0.03701508979513814</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.008126552770916</v>
+        <v>2.86593747507094</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03701508979513814</v>
+        <v>0.9609314809950403</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.86593747507094</v>
+        <v>1.060809823442056</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9609314809950403</v>
+        <v>118</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.060809823442056</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.615456103017503</v>
       </c>
     </row>
@@ -4879,72 +4855,66 @@
         <v>1.796488377585826e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3239330840885162</v>
+        <v>9.654473361213928e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.03471564262014848</v>
+        <v>6.679623885579376e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.654473361213928e-08</v>
+        <v>0.06349067367218303</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.679623885579376e-07</v>
+        <v>0.2896813379155569</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06349067367218303</v>
+        <v>0.08775929466716074</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2896813379155569</v>
+        <v>1.904783444586337</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08775929466716074</v>
+        <v>2.119153541736253</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.89484159882801</v>
+        <v>6.041003843248784</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.119153541736253</v>
+        <v>2.201190295231688e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.041003843248784</v>
+        <v>2204101962.700325</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.201190295231688e-17</v>
+        <v>5.432240148349613e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2204101962.700325</v>
+        <v>106.9352654850936</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.432240148349613e-08</v>
+        <v>0.0002190615592251953</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>106.9352654850936</v>
+        <v>12.80063070324183</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002190615592251953</v>
+        <v>1.085212330849409</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.80063070324183</v>
+        <v>0.03589458291918619</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.085212330849409</v>
+        <v>2.800045688694348</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03589458291918619</v>
+        <v>0.9610932465807561</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.800045688694348</v>
+        <v>1.386982547636187</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9610932465807561</v>
+        <v>119</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.386982547636187</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.23359939680974</v>
       </c>
     </row>
@@ -4959,72 +4929,66 @@
         <v>1.639507087008989e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.09719203275901259</v>
+        <v>7.054503464358928e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.175082438576322</v>
+        <v>6.68913498188362e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.054503464358928e-08</v>
+        <v>0.04767458994583836</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.68913498188362e-07</v>
+        <v>0.249546196754451</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04767458994583836</v>
+        <v>0.06442220655392954</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.249546196754451</v>
+        <v>1.889709853807236</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06442220655392954</v>
+        <v>1.876139620536678</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.873437187059581</v>
+        <v>5.180482425299257</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.876139620536678</v>
+        <v>5.281847542886739e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.180482425299257</v>
+        <v>929334360.3119936</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.281847542886739e-17</v>
+        <v>1.282458268677534e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>929334360.3119936</v>
+        <v>45.61732878431636</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.282458268677534e-07</v>
+        <v>0.0002729433130900232</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45.61732878431636</v>
+        <v>9.91242399486185</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002729433130900232</v>
+        <v>1.782269756810775</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.91242399486185</v>
+        <v>0.02681835896341948</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.782269756810775</v>
+        <v>2.77139900289203</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02681835896341948</v>
+        <v>0.9622112182341077</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.77139900289203</v>
+        <v>1.559632527816577</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9622112182341077</v>
+        <v>119</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.559632527816577</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4965769861076326</v>
       </c>
     </row>
@@ -5039,72 +5003,66 @@
         <v>1.576458270619683e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1741379932744557</v>
+        <v>5.103637098059271e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.337685920040076</v>
+        <v>6.6954738352021e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.103637098059271e-08</v>
+        <v>0.03164085907439665</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.6954738352021e-07</v>
+        <v>0.2086226574906312</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03164085907439665</v>
+        <v>0.04444903681897153</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2086226574906312</v>
+        <v>1.885459273597291</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04444903681897153</v>
+        <v>1.880093108786983</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.869456311256999</v>
+        <v>4.201974381238733</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.880093108786983</v>
+        <v>8.324945377692843e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.201974381238733</v>
+        <v>601422651.9299393</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.324945377692843e-17</v>
+        <v>1.987948194134093e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>601422651.9299393</v>
+        <v>30.11209384676855</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.987948194134093e-07</v>
+        <v>0.0002092897549165396</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>30.11209384676855</v>
+        <v>9.785995593473231</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002092897549165396</v>
+        <v>1.643107064383902</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.785995593473231</v>
+        <v>0.02004278192413235</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.643107064383902</v>
+        <v>2.873342505559804</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02004278192413235</v>
+        <v>0.9621073424384041</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.873342505559804</v>
+        <v>1.560506750680765</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9621073424384041</v>
+        <v>117</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.560506750680765</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2702200554438484</v>
       </c>
     </row>
@@ -5119,72 +5077,66 @@
         <v>1.559373871629843e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1368892637980614</v>
+        <v>4.71041555147743e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.319125339950824</v>
+        <v>6.699251747093722e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.71041555147743e-08</v>
+        <v>0.01702298755582977</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.699251747093722e-07</v>
+        <v>0.173111677885351</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01702298755582977</v>
+        <v>0.03021190486561419</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.173111677885351</v>
+        <v>1.880304424025431</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03021190486561419</v>
+        <v>1.899882802268261</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.861046441448922</v>
+        <v>3.83490921313363</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.899882802268261</v>
+        <v>9.994890008194954e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.83490921313363</v>
+        <v>497407279.9785215</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.994890008194954e-17</v>
+        <v>2.398406930394066e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>497407279.9785215</v>
+        <v>24.72875738232741</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.398406930394066e-07</v>
+        <v>0.0001656454537913277</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>24.72875738232741</v>
+        <v>10.31870765152489</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001656454537913277</v>
+        <v>1.204279548505542</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.31870765152489</v>
+        <v>0.01763722021567258</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.204279548505542</v>
+        <v>2.798373849314576</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01763722021567258</v>
+        <v>0.9619119997477821</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.798373849314576</v>
+        <v>1.543837392147689</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9619119997477821</v>
+        <v>72</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.543837392147689</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2195396806466145</v>
       </c>
     </row>
@@ -5561,7 +5513,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483613199280865</v>
+        <v>1.506245145500101</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.30599751400828</v>
@@ -5650,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.495244968195021</v>
+        <v>1.518769245271738</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.351552662610935</v>
@@ -5739,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.524753790053066</v>
+        <v>1.54599804465348</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.194874838239958</v>
@@ -5828,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496078609478439</v>
+        <v>1.519135600067906</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.369193526069826</v>
@@ -5917,7 +5869,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553886973174602</v>
+        <v>1.571348302521119</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.118326495120125</v>
@@ -6006,7 +5958,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.572924712320342</v>
+        <v>1.590960615898522</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.268131573250439</v>
@@ -6095,7 +6047,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577755372329986</v>
+        <v>1.602995328153286</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.245846609343209</v>
@@ -6184,7 +6136,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.626079661236934</v>
+        <v>1.650015523370995</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.333837996110266</v>
@@ -6273,7 +6225,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611902408247219</v>
+        <v>1.633092470326791</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.248738876327967</v>
@@ -6362,7 +6314,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60857847951416</v>
+        <v>1.629780718095972</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.292034814629583</v>
@@ -6451,7 +6403,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.626239377803631</v>
+        <v>1.648074099091522</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.414898319151487</v>
@@ -6540,7 +6492,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626947540755088</v>
+        <v>1.652437520543265</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.323706290893015</v>
@@ -6629,7 +6581,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.626412867869887</v>
+        <v>1.651487072389402</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.405039669176086</v>
@@ -6718,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622149940160701</v>
+        <v>1.64682265095454</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.401623756424801</v>
@@ -6807,7 +6759,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615877000686026</v>
+        <v>1.641253346743345</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.369963618762152</v>
@@ -6896,7 +6848,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606960906998562</v>
+        <v>1.633281038847473</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.238896916849355</v>
@@ -6985,7 +6937,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614560790161315</v>
+        <v>1.634022349996609</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.446623194761207</v>
@@ -7074,7 +7026,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.618023236378809</v>
+        <v>1.634007497636435</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.35579915040858</v>
@@ -7163,7 +7115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.663700850634553</v>
+        <v>1.671700750320109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.478351660095839</v>
@@ -7252,7 +7204,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.665748901707581</v>
+        <v>1.670436533236888</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.580573251797938</v>
@@ -7341,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66422058555534</v>
+        <v>1.667115282678839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.481618086808042</v>
@@ -7430,7 +7382,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668272535891029</v>
+        <v>1.673607362745385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.597051164435539</v>
@@ -7519,7 +7471,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652924423080708</v>
+        <v>1.661937575600886</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.33183437256321</v>
@@ -7608,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.693993483932096</v>
+        <v>1.69733178607579</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.66541984841817</v>
@@ -7697,7 +7649,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696306777522093</v>
+        <v>1.701886012233416</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.690249400321125</v>
@@ -7786,7 +7738,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.710628100825661</v>
+        <v>1.709634854340701</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.596085244975948</v>
@@ -7875,7 +7827,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.713225533952462</v>
+        <v>1.713680758570783</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.596920025096675</v>
@@ -7964,7 +7916,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.718369611285249</v>
+        <v>1.715294943511422</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.54400537619158</v>
@@ -8053,7 +8005,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.72967474449586</v>
+        <v>1.722087348353071</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.900110700739202</v>
@@ -8142,7 +8094,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726534897123249</v>
+        <v>1.718999675903677</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.646831365620338</v>
@@ -8231,7 +8183,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.775534496990258</v>
+        <v>1.760491183278971</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.84973484594461</v>
@@ -8320,7 +8272,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.778968993526025</v>
+        <v>1.768780618172119</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.6352811177348</v>
@@ -8409,7 +8361,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.784355974596777</v>
+        <v>1.772715177407473</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.512766700181873</v>
@@ -8498,7 +8450,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749294192351877</v>
+        <v>1.754741962674839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.652556450125322</v>
@@ -8587,7 +8539,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.750787084910291</v>
+        <v>1.758232437047317</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.738466022780253</v>
@@ -8676,7 +8628,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.755316892265008</v>
+        <v>1.764470861525065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.740507073138928</v>
@@ -8765,7 +8717,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.730234819273988</v>
+        <v>1.739234477216004</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.56631350511306</v>
@@ -8854,7 +8806,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.746397837805622</v>
+        <v>1.75217743548598</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.704889902016839</v>
@@ -8943,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749915459276377</v>
+        <v>1.756449286921554</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.763636844238872</v>
@@ -9032,7 +8984,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.753798023758135</v>
+        <v>1.759573899940671</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.616331637559237</v>
@@ -9121,7 +9073,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.759219317518748</v>
+        <v>1.767709072035133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.759247961115924</v>
@@ -9210,7 +9162,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.757731051186537</v>
+        <v>1.767931578502691</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.755243943104728</v>
@@ -9299,7 +9251,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.70856919021463</v>
+        <v>1.72451222575038</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.671971505533996</v>
@@ -9388,7 +9340,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.715746939261088</v>
+        <v>1.735340782970908</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.591068887147956</v>
@@ -9477,7 +9429,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.695500979493425</v>
+        <v>1.718250213563522</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.566547257781791</v>
@@ -9566,7 +9518,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691774213752753</v>
+        <v>1.712370097069416</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.54895859868574</v>
@@ -9655,7 +9607,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692639211331033</v>
+        <v>1.713130235563604</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.66040687685629</v>
@@ -9744,7 +9696,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680188385451263</v>
+        <v>1.694243852650447</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.634357908466345</v>
@@ -9833,7 +9785,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.688789698555077</v>
+        <v>1.697164704165194</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.558543053271826</v>
@@ -9922,7 +9874,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647256202270472</v>
+        <v>1.659966114623836</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.523752077785567</v>
@@ -10011,7 +9963,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622434198913158</v>
+        <v>1.634306496524633</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.503412136113787</v>
@@ -10297,7 +10249,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513969127327678</v>
+        <v>1.526320928081923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.578549829126631</v>
@@ -10386,7 +10338,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524770849509782</v>
+        <v>1.536179406327117</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.573712580958608</v>
@@ -10475,7 +10427,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.537062986714274</v>
+        <v>1.547365856993776</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.576859063660589</v>
@@ -10564,7 +10516,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.523026444622907</v>
+        <v>1.534669042502693</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.578446515705908</v>
@@ -10653,7 +10605,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543962314752281</v>
+        <v>1.553607013368218</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.564080101520508</v>
@@ -10742,7 +10694,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.547584095580188</v>
+        <v>1.556743572109042</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.570531642739043</v>
@@ -10831,7 +10783,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.553412587931424</v>
+        <v>1.568933621443091</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.566273441396111</v>
@@ -10920,7 +10872,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.551859141664446</v>
+        <v>1.565693173247756</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.563996215398263</v>
@@ -11009,7 +10961,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567258552642189</v>
+        <v>1.568245979500174</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.532944934730655</v>
@@ -11098,7 +11050,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.594015276121372</v>
+        <v>1.559864028180162</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.654808332789687</v>
@@ -11187,7 +11139,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589291777913277</v>
+        <v>1.551208729049339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.643538333300797</v>
@@ -11276,7 +11228,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.579030434097216</v>
+        <v>1.555350930637727</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.657534540505923</v>
@@ -11365,7 +11317,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.582227173295795</v>
+        <v>1.56011657544664</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.596819064858774</v>
@@ -11454,7 +11406,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.590559835415827</v>
+        <v>1.567119563967735</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.717459186178401</v>
@@ -11543,7 +11495,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566345059611522</v>
+        <v>1.548819616372222</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.817120260007994</v>
@@ -11632,7 +11584,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554494487677384</v>
+        <v>1.543533920696241</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.575057179328153</v>
@@ -11721,7 +11673,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555705432470055</v>
+        <v>1.538355030864723</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.817158827938578</v>
@@ -11810,7 +11762,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548023629192205</v>
+        <v>1.531181687394971</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.564555075794533</v>
@@ -11899,7 +11851,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.571949746757992</v>
+        <v>1.549204254472082</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.720977183709956</v>
@@ -11988,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545682388487178</v>
+        <v>1.523539557117518</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.690225419045337</v>
@@ -12077,7 +12029,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53819277492084</v>
+        <v>1.516199609716868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.683941376311485</v>
@@ -12166,7 +12118,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535853903487248</v>
+        <v>1.516936723319252</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.735096180500933</v>
@@ -12255,7 +12207,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.534704493512201</v>
+        <v>1.513853005173881</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.490950066540251</v>
@@ -12344,7 +12296,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560377876112595</v>
+        <v>1.532622385076595</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.525220529362647</v>
@@ -12433,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.560301580598439</v>
+        <v>1.535014232647387</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.737454967192787</v>
@@ -12522,7 +12474,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.569788825105287</v>
+        <v>1.540852985073224</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.538047436276565</v>
@@ -12611,7 +12563,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566680053401635</v>
+        <v>1.538767743812255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.762758231812827</v>
@@ -12700,7 +12652,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570228579644588</v>
+        <v>1.54068729171726</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.598651742485238</v>
@@ -12789,7 +12741,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.559819765999019</v>
+        <v>1.529125118020448</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.418207432671499</v>
@@ -12878,7 +12830,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557576930976106</v>
+        <v>1.525026457324968</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.559153569353754</v>
@@ -12967,7 +12919,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.558119363539336</v>
+        <v>1.520702194217037</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.714398577682021</v>
@@ -13056,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.554316966494362</v>
+        <v>1.519983995402647</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.692165930965508</v>
@@ -13145,7 +13097,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558202386587553</v>
+        <v>1.522817664546539</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.631793905336123</v>
@@ -13234,7 +13186,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538998391245342</v>
+        <v>1.512423441943626</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.623092685465878</v>
@@ -13323,7 +13275,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572932718844014</v>
+        <v>1.543742565863531</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.731848058481447</v>
@@ -13412,7 +13364,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.579647409115303</v>
+        <v>1.550175325210621</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.729738326910981</v>
@@ -13501,7 +13453,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.583870981773918</v>
+        <v>1.554052892167839</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.759431193960032</v>
@@ -13590,7 +13542,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589121473316556</v>
+        <v>1.557626280005541</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.754883255261934</v>
@@ -13679,7 +13631,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589155953944826</v>
+        <v>1.563232963154336</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.687261601347111</v>
@@ -13768,7 +13720,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.594517736366472</v>
+        <v>1.569199642243508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.662301242314272</v>
@@ -13857,7 +13809,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.609543416562398</v>
+        <v>1.58390226214936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.768397509441721</v>
@@ -13946,7 +13898,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606930267696584</v>
+        <v>1.582202693378473</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.761372544638745</v>
@@ -14035,7 +13987,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.575731857611148</v>
+        <v>1.557736102974569</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.683166101194829</v>
@@ -14124,7 +14076,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591324822726577</v>
+        <v>1.571991300871285</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.429336215297862</v>
@@ -14213,7 +14165,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59387496049616</v>
+        <v>1.578313238821735</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.37665465428843</v>
@@ -14302,7 +14254,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622753475060275</v>
+        <v>1.60992873173868</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.486086659621628</v>
@@ -14391,7 +14343,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.631664977813464</v>
+        <v>1.61684175603842</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.402246986219006</v>
@@ -14480,7 +14432,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.645083821745625</v>
+        <v>1.627278500130636</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.63035297968891</v>
@@ -14569,7 +14521,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.632423196245158</v>
+        <v>1.615972800685039</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.54715646849112</v>
@@ -14658,7 +14610,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617549470637234</v>
+        <v>1.606941180715786</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.568765495540348</v>
@@ -14747,7 +14699,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.60745514967846</v>
+        <v>1.601689349028271</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.491635047722182</v>
@@ -15033,7 +14985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.808092347454583</v>
+        <v>1.772625825845079</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.954303087629423</v>
@@ -15122,7 +15074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.810829237625535</v>
+        <v>1.778271037967015</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.955252664761046</v>
@@ -15211,7 +15163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.815865816651278</v>
+        <v>1.788433559704446</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.945895641326981</v>
@@ -15300,7 +15252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.819253077159294</v>
+        <v>1.792627313463164</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.947493754141463</v>
@@ -15389,7 +15341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.826110900674925</v>
+        <v>1.798622418916628</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.942147992384505</v>
@@ -15478,7 +15430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.826133641462307</v>
+        <v>1.800387134521945</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.945789967459253</v>
@@ -15567,7 +15519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.833730001267998</v>
+        <v>1.808962195157333</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.950777340753109</v>
@@ -15656,7 +15608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.842774318700174</v>
+        <v>1.814163891949472</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.932104430116534</v>
@@ -15745,7 +15697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.864326588868831</v>
+        <v>1.815635439384219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.890415215128164</v>
@@ -15834,7 +15786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.814145506055966</v>
+        <v>1.766710144677294</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.835853719373768</v>
@@ -15923,7 +15875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.809561298737903</v>
+        <v>1.755936071755438</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.02785409319524</v>
@@ -16012,7 +15964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.804778877886629</v>
+        <v>1.754051805232033</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.187858275506886</v>
@@ -16101,7 +16053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.800060748021288</v>
+        <v>1.750626401794258</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.58626054954027</v>
@@ -16190,7 +16142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.796823433450684</v>
+        <v>1.74610752323623</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.535549264430269</v>
@@ -16279,7 +16231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.783446634572353</v>
+        <v>1.734344093780025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.253998205464579</v>
@@ -16368,7 +16320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.779865451223014</v>
+        <v>1.725524756103062</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.059642382260797</v>
@@ -16457,7 +16409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777674361220462</v>
+        <v>1.72246843892525</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.476515737956373</v>
@@ -16546,7 +16498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.772911781714552</v>
+        <v>1.719373780830595</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.167186981771918</v>
@@ -16635,7 +16587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.764460647329147</v>
+        <v>1.709609385856104</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.988427760797475</v>
@@ -16724,7 +16676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757468102403637</v>
+        <v>1.702448399299372</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.190589582992576</v>
@@ -16813,7 +16765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.757526569501329</v>
+        <v>1.702348370695559</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.494980073666119</v>
@@ -16902,7 +16854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754822837718925</v>
+        <v>1.70098213751509</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.811366462140935</v>
@@ -16991,7 +16943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.752006369509559</v>
+        <v>1.696909510268856</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.819022025387144</v>
@@ -17080,7 +17032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.764403241815021</v>
+        <v>1.707653690148716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.562746374688928</v>
@@ -17169,7 +17121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.766472753502759</v>
+        <v>1.708461555200736</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.650700926006929</v>
@@ -17258,7 +17210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.766031559370659</v>
+        <v>1.710035102512211</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.646134920496181</v>
@@ -17347,7 +17299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.763962300277988</v>
+        <v>1.709882121488828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.928881544896504</v>
@@ -17436,7 +17388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.776163578708654</v>
+        <v>1.724794046983918</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.312514660174704</v>
@@ -17525,7 +17477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.772680134536461</v>
+        <v>1.724169653080356</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.604392421380716</v>
@@ -17614,7 +17566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.782093963292946</v>
+        <v>1.731092133172188</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.140578600840383</v>
@@ -17703,7 +17655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.791236585340976</v>
+        <v>1.74168864357139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.408831447189986</v>
@@ -17792,7 +17744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.795042235029908</v>
+        <v>1.747993173159642</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.885011153696602</v>
@@ -17881,7 +17833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.785718062613118</v>
+        <v>1.744529284060266</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.776445767211747</v>
@@ -17970,7 +17922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.789555412077934</v>
+        <v>1.750046681919972</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.674913160298502</v>
@@ -18059,7 +18011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.8055411707689</v>
+        <v>1.765891889300388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.937868133371867</v>
@@ -18148,7 +18100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.807471978404882</v>
+        <v>1.771322747398467</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.419152634178008</v>
@@ -18237,7 +18189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.813261227930244</v>
+        <v>1.773148665776776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.204336498162987</v>
@@ -18326,7 +18278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.820401770100581</v>
+        <v>1.777270693716683</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.622416500667894</v>
@@ -18415,7 +18367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.821796091637337</v>
+        <v>1.775583126436794</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.0132164193354</v>
@@ -18504,7 +18456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.820417118909856</v>
+        <v>1.781552645684909</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.31770617585132</v>
@@ -18593,7 +18545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.818284259956523</v>
+        <v>1.782316806704507</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.142036546739616</v>
@@ -18682,7 +18634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.815942366891604</v>
+        <v>1.774768494165939</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.132167072553709</v>
@@ -18771,7 +18723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.805782188365577</v>
+        <v>1.759428267676054</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.113784204429829</v>
@@ -18860,7 +18812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.798782268648737</v>
+        <v>1.754665117748264</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.225366737394922</v>
@@ -18949,7 +18901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.795149780263948</v>
+        <v>1.749071084862552</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.352802852987966</v>
@@ -19038,7 +18990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.804144414401233</v>
+        <v>1.760013585280949</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.227376495475037</v>
@@ -19127,7 +19079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.80606036537626</v>
+        <v>1.75793306322229</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.59591213602663</v>
@@ -19216,7 +19168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.807154508698476</v>
+        <v>1.760312712175327</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.604868448000254</v>
@@ -19305,7 +19257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.806801780547358</v>
+        <v>1.758133841552402</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.136259286945689</v>
@@ -19394,7 +19346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.799039170074747</v>
+        <v>1.75124535971987</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.93635554491679</v>
@@ -19483,7 +19435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.794948188673801</v>
+        <v>1.747210336427858</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.173871162837727</v>
@@ -19769,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.734271171434826</v>
+        <v>1.734451252443832</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.08654133485622</v>
@@ -19858,7 +19810,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.742476872431654</v>
+        <v>1.740122268871365</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.093004198698133</v>
@@ -19947,7 +19899,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.741418168338654</v>
+        <v>1.737647743925121</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.099335067247559</v>
@@ -20036,7 +19988,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736801665829942</v>
+        <v>1.733913326223598</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.076232278690435</v>
@@ -20125,7 +20077,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.755522536829768</v>
+        <v>1.745816221942984</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.040038403400554</v>
@@ -20214,7 +20166,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.761237266841226</v>
+        <v>1.746101478536149</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.079698608167304</v>
@@ -20303,7 +20255,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.764074739784093</v>
+        <v>1.750408909745363</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.118719652515744</v>
@@ -20392,7 +20344,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.777147649413519</v>
+        <v>1.762040326378844</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.086232478579677</v>
@@ -20481,7 +20433,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.803766834607164</v>
+        <v>1.774303808450798</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.998785472081254</v>
@@ -20570,7 +20522,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.786326878112761</v>
+        <v>1.752167943100083</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.945080344646664</v>
@@ -20659,7 +20611,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.789718101332054</v>
+        <v>1.750399537537531</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.905152706465171</v>
@@ -20748,7 +20700,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.782453414798362</v>
+        <v>1.746294935608866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.689852735420044</v>
@@ -20837,7 +20789,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.782275830617687</v>
+        <v>1.740946501000352</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.152285986653896</v>
@@ -20926,7 +20878,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.786579831255231</v>
+        <v>1.747611266299729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.196585400354432</v>
@@ -21015,7 +20967,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.780281852789934</v>
+        <v>1.747027630854411</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.781964918378019</v>
@@ -21104,7 +21056,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77069211979458</v>
+        <v>1.740946142982018</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.450756861681813</v>
@@ -21193,7 +21145,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.775309759687857</v>
+        <v>1.743172752817943</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.843182725455753</v>
@@ -21282,7 +21234,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.775347378261939</v>
+        <v>1.737844050096826</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.843594761252989</v>
@@ -21371,7 +21323,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.777739305285419</v>
+        <v>1.735348074240028</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.874747595825621</v>
@@ -21460,7 +21412,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.779577519802606</v>
+        <v>1.741603404573017</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.606017690931741</v>
@@ -21549,7 +21501,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.778637712939751</v>
+        <v>1.74491965671971</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.640304271035171</v>
@@ -21638,7 +21590,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.774441236751679</v>
+        <v>1.741299724900681</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.729338437748468</v>
@@ -21727,7 +21679,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.758857456002241</v>
+        <v>1.730131147632153</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.242680868367291</v>
@@ -21816,7 +21768,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.768148195543268</v>
+        <v>1.731985317038277</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.894862322056218</v>
@@ -21905,7 +21857,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.769939127106706</v>
+        <v>1.730100864833126</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.794623455009943</v>
@@ -21994,7 +21946,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.765009897875282</v>
+        <v>1.730709303899176</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.671877953523276</v>
@@ -22083,7 +22035,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.775523338162028</v>
+        <v>1.738777424564331</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.640370354138992</v>
@@ -22172,7 +22124,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.779031230527929</v>
+        <v>1.748870105557142</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.591386783797157</v>
@@ -22261,7 +22213,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.751088722050479</v>
+        <v>1.726964053136018</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.591184549877591</v>
@@ -22350,7 +22302,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.746974197577967</v>
+        <v>1.720807547395108</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.88324879403587</v>
@@ -22439,7 +22391,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.759831368125457</v>
+        <v>1.725876436857717</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.062357145985276</v>
@@ -22528,7 +22480,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.758789297883249</v>
+        <v>1.732306660115072</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.748809761658729</v>
@@ -22617,7 +22569,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.760348861672643</v>
+        <v>1.729375593479258</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.684113231101245</v>
@@ -22706,7 +22658,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.757449402586796</v>
+        <v>1.730178433131366</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.093491985980194</v>
@@ -22795,7 +22747,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.766615094461729</v>
+        <v>1.739956854048529</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.919737125147142</v>
@@ -22884,7 +22836,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.767313848429318</v>
+        <v>1.742229925441053</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.864090774428459</v>
@@ -22973,7 +22925,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.765229218129851</v>
+        <v>1.737717169407288</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.723551207194509</v>
@@ -23062,7 +23014,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.767334415374163</v>
+        <v>1.73995763752114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.103439167988404</v>
@@ -23151,7 +23103,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.761364125930199</v>
+        <v>1.737230396679921</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.291789364649179</v>
@@ -23240,7 +23192,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.76763376390341</v>
+        <v>1.749279235123225</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.076452650501937</v>
@@ -23329,7 +23281,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.768255675193908</v>
+        <v>1.751143077381347</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.808735776836286</v>
@@ -23418,7 +23370,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.76173366048083</v>
+        <v>1.745654225193603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.209846648144303</v>
@@ -23507,7 +23459,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.750152737321795</v>
+        <v>1.735431521928605</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.171149987695262</v>
@@ -23596,7 +23548,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.767313547749879</v>
+        <v>1.745230850500153</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.204704317983931</v>
@@ -23685,7 +23637,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.772476065906528</v>
+        <v>1.751430041721439</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.007691506112208</v>
@@ -23774,7 +23726,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.771552090296954</v>
+        <v>1.756036272465899</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.803309100054708</v>
@@ -23863,7 +23815,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.765307343514323</v>
+        <v>1.750575763767112</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.663562833168438</v>
@@ -23952,7 +23904,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.768764870662166</v>
+        <v>1.756892136956719</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.576778738801335</v>
@@ -24041,7 +23993,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.774904443070604</v>
+        <v>1.759992924341202</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.978064259172814</v>
@@ -24130,7 +24082,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756337400805807</v>
+        <v>1.740465507771289</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.645617316007038</v>
@@ -24219,7 +24171,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.752835136993822</v>
+        <v>1.734813462345423</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.168315101006048</v>
@@ -24505,7 +24457,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446640567655702</v>
+        <v>1.442893992471581</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.872206792086475</v>
@@ -24594,7 +24546,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.455765584713989</v>
+        <v>1.454421175173199</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.845865400779161</v>
@@ -24683,7 +24635,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.475682449356619</v>
+        <v>1.476541393761468</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.901486891300486</v>
@@ -24772,7 +24724,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461732507264965</v>
+        <v>1.462077139069013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.867430067514778</v>
@@ -24861,7 +24813,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.495337365688481</v>
+        <v>1.488698642381636</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.811011613960865</v>
@@ -24950,7 +24902,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.498168943244035</v>
+        <v>1.490324165826612</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.876764891508024</v>
@@ -25039,7 +24991,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.50313414315563</v>
+        <v>1.493164943811655</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.856048424164829</v>
@@ -25128,7 +25080,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.52493028581052</v>
+        <v>1.509883026961887</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.834689547767321</v>
@@ -25217,7 +25169,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54371598331083</v>
+        <v>1.517925537689284</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.736982677983706</v>
@@ -25306,7 +25258,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559088270080556</v>
+        <v>1.529027452497999</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.463803694451879</v>
@@ -25395,7 +25347,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575603862536729</v>
+        <v>1.536425358612553</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.666420969613842</v>
@@ -25484,7 +25436,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563130892670419</v>
+        <v>1.535222980382942</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.535522193073477</v>
@@ -25573,7 +25525,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56186651870195</v>
+        <v>1.535047867500753</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.568115376681078</v>
@@ -25662,7 +25614,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558646497709614</v>
+        <v>1.539699165357304</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.664632450507228</v>
@@ -25751,7 +25703,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.541825754288816</v>
+        <v>1.529261493050579</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.576051338711902</v>
@@ -25840,7 +25792,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.560101326022067</v>
+        <v>1.544228080111397</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.429697992960129</v>
@@ -25929,7 +25881,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555285175992313</v>
+        <v>1.539391468893919</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.747720167799839</v>
@@ -26018,7 +25970,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.539320400282501</v>
+        <v>1.52702425981404</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.717051362670007</v>
@@ -26107,7 +26059,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560479235986824</v>
+        <v>1.546328769942746</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.681863128557063</v>
@@ -26196,7 +26148,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542440149619406</v>
+        <v>1.533052921502325</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.671307145014846</v>
@@ -26285,7 +26237,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.527741981424704</v>
+        <v>1.520140390874387</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.670826057675813</v>
@@ -26374,7 +26326,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525446943705122</v>
+        <v>1.522081775412979</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.723436548934304</v>
@@ -26463,7 +26415,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.521198586730786</v>
+        <v>1.521059751729603</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.399165466612344</v>
@@ -26552,7 +26504,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560758189002304</v>
+        <v>1.556380400432497</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.501734854492037</v>
@@ -26641,7 +26593,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.562471037658308</v>
+        <v>1.549599114297955</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.74139611376807</v>
@@ -26730,7 +26682,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560259776802146</v>
+        <v>1.552256165503008</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.552093008780199</v>
@@ -26819,7 +26771,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.551988077399338</v>
+        <v>1.547029643918186</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.732866627908651</v>
@@ -26908,7 +26860,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558927500636347</v>
+        <v>1.554411530562478</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.60676532087641</v>
@@ -26997,7 +26949,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561780102480872</v>
+        <v>1.553044130039509</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.55000193022351</v>
@@ -27086,7 +27038,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561170324540785</v>
+        <v>1.552161483392078</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.814911423383864</v>
@@ -27175,7 +27127,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.548757417909253</v>
+        <v>1.545022612600347</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.830765017141163</v>
@@ -27264,7 +27216,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.555600479050206</v>
+        <v>1.546010170793564</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.78199393197863</v>
@@ -27353,7 +27305,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.554330779709658</v>
+        <v>1.54443991044611</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.701405045336773</v>
@@ -27442,7 +27394,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534968293163918</v>
+        <v>1.534146680113697</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.682692600624984</v>
@@ -27531,7 +27483,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562368112245458</v>
+        <v>1.558877315437081</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.753966016407806</v>
@@ -27620,7 +27572,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573893849115624</v>
+        <v>1.57103563169367</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.83898239172397</v>
@@ -27709,7 +27661,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.553819364310952</v>
+        <v>1.547808722797223</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.528377631244004</v>
@@ -27798,7 +27750,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560528952856469</v>
+        <v>1.554206661859104</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.812385572196639</v>
@@ -27887,7 +27839,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.557382135898662</v>
+        <v>1.549734277422319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.712079081531437</v>
@@ -27976,7 +27928,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568133773561014</v>
+        <v>1.561680060999027</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.473652758450827</v>
@@ -28065,7 +28017,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577693632319318</v>
+        <v>1.574955033801648</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.567562730293372</v>
@@ -28154,7 +28106,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577708227668948</v>
+        <v>1.574168093535303</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.732353416322476</v>
@@ -28243,7 +28195,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.542929242521546</v>
+        <v>1.538968514393775</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.808724392916116</v>
@@ -28332,7 +28284,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553908938397727</v>
+        <v>1.548808250735759</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.838304346223993</v>
@@ -28421,7 +28373,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.550764504987199</v>
+        <v>1.540078807066916</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.741029194767005</v>
@@ -28510,7 +28462,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565854140065353</v>
+        <v>1.551844652532017</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.858314654611656</v>
@@ -28599,7 +28551,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.574837345251082</v>
+        <v>1.560784990828674</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.723381059155581</v>
@@ -28688,7 +28640,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575611794211536</v>
+        <v>1.56146716276753</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.512070073676955</v>
@@ -28777,7 +28729,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.569518468348186</v>
+        <v>1.553169820515768</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.63060476595727</v>
@@ -28866,7 +28818,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.544241046509834</v>
+        <v>1.531335133593601</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.586657425516825</v>
@@ -28955,7 +28907,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.536782237271797</v>
+        <v>1.52391553734325</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.426502901714156</v>
@@ -29241,7 +29193,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.458318805280769</v>
+        <v>1.464589746253155</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.863277169732527</v>
@@ -29330,7 +29282,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.459584584115784</v>
+        <v>1.465862865429847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.892075639998252</v>
@@ -29419,7 +29371,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.470906362169428</v>
+        <v>1.477090631377258</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.828257594544749</v>
@@ -29508,7 +29460,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.454694548059955</v>
+        <v>1.461181895334569</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.867035780261955</v>
@@ -29597,7 +29549,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.480419586094741</v>
+        <v>1.481203871553899</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.900832335433669</v>
@@ -29686,7 +29638,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.489436791989156</v>
+        <v>1.489440306684831</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.836965597937931</v>
@@ -29775,7 +29727,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494371506061561</v>
+        <v>1.494120378755011</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.81763112963938</v>
@@ -29864,7 +29816,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.50289862185384</v>
+        <v>1.506491347691524</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.813683751514866</v>
@@ -29953,7 +29905,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537595030402161</v>
+        <v>1.525196405617657</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.845273745770064</v>
@@ -30042,7 +29994,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643887434713206</v>
+        <v>1.620488135691617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.608551202842377</v>
@@ -30131,7 +30083,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.660932585130761</v>
+        <v>1.638831096827488</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.606647046211573</v>
@@ -30220,7 +30172,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662228145846807</v>
+        <v>1.646334297712125</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.658264092911825</v>
@@ -30309,7 +30261,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664054039402685</v>
+        <v>1.650559187343805</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.587578050345394</v>
@@ -30398,7 +30350,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665768961553573</v>
+        <v>1.653203124464313</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.692402228073081</v>
@@ -30487,7 +30439,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.661830629640508</v>
+        <v>1.655033505886756</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.539984816402882</v>
@@ -30576,7 +30528,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672452526297692</v>
+        <v>1.665148894765092</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513095191503257</v>
@@ -30665,7 +30617,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676775528835967</v>
+        <v>1.66703216781013</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.723209295454549</v>
@@ -30754,7 +30706,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677649536435298</v>
+        <v>1.666708307848303</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.771016773834094</v>
@@ -30843,7 +30795,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.701061834448485</v>
+        <v>1.689331263774805</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.887975147728648</v>
@@ -30932,7 +30884,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.689025163168301</v>
+        <v>1.68163050563085</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.138718809941893</v>
@@ -31021,7 +30973,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.682941922315364</v>
+        <v>1.678277546971368</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.869272385456645</v>
@@ -31110,7 +31062,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.682905325421822</v>
+        <v>1.679704209420991</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.869099539774668</v>
@@ -31199,7 +31151,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676033583381735</v>
+        <v>1.669375851707984</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.654192134043146</v>
@@ -31288,7 +31240,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.70236023240568</v>
+        <v>1.698014994409906</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.13460204604195</v>
@@ -31377,7 +31329,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.705120616567502</v>
+        <v>1.70129588557747</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.524906524027322</v>
@@ -31466,7 +31418,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720788828558849</v>
+        <v>1.715504693272879</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.581065635363409</v>
@@ -31555,7 +31507,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.719479722620819</v>
+        <v>1.716144321758301</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.572054598320886</v>
@@ -31644,7 +31596,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720302179032162</v>
+        <v>1.716061785366767</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.426809956267463</v>
@@ -31733,7 +31685,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.721867361749099</v>
+        <v>1.714281654894694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.170466954475266</v>
@@ -31822,7 +31774,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.722683239081043</v>
+        <v>1.710701221482355</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.5056999494987</v>
@@ -31911,7 +31863,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.737548433091841</v>
+        <v>1.721042569937228</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.001579509273911</v>
@@ -32000,7 +31952,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.739858896270021</v>
+        <v>1.725913859853856</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.082919708338469</v>
@@ -32089,7 +32041,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733760611859001</v>
+        <v>1.721905243740987</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.418580062423593</v>
@@ -32178,7 +32130,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.732335811109959</v>
+        <v>1.718082601213174</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.027520145847742</v>
@@ -32267,7 +32219,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.753690951888347</v>
+        <v>1.736994242057407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.093272021784076</v>
@@ -32356,7 +32308,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.757459344279068</v>
+        <v>1.74322106445244</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.259743378954807</v>
@@ -32445,7 +32397,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.738798026936435</v>
+        <v>1.728948716204414</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.262338602744242</v>
@@ -32534,7 +32486,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.744730629822495</v>
+        <v>1.737521773431902</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.442288990261324</v>
@@ -32623,7 +32575,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.744772887082853</v>
+        <v>1.734241024554737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.456492043282017</v>
@@ -32712,7 +32664,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.747181854279772</v>
+        <v>1.742317838394193</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.077678821893068</v>
@@ -32801,7 +32753,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750978433617866</v>
+        <v>1.742931324873921</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.130782841588521</v>
@@ -32890,7 +32842,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.751570523966959</v>
+        <v>1.743921456589488</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.680545948149308</v>
@@ -32979,7 +32931,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.726167460961189</v>
+        <v>1.723481749290367</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.575109459384096</v>
@@ -33068,7 +33020,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.732571254124821</v>
+        <v>1.732292466441948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.578163111962784</v>
@@ -33157,7 +33109,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732079644926833</v>
+        <v>1.733495066985425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.621291579561992</v>
@@ -33246,7 +33198,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.739266274694581</v>
+        <v>1.738762704675726</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.480556650728665</v>
@@ -33335,7 +33287,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.747080483437172</v>
+        <v>1.746103665702986</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.528727400275436</v>
@@ -33424,7 +33376,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.734602077072832</v>
+        <v>1.732010266211139</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.857589484590187</v>
@@ -33513,7 +33465,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.737832750563163</v>
+        <v>1.737484326019793</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.347990130755623</v>
@@ -33602,7 +33554,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.714345701034287</v>
+        <v>1.713525632701114</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.94500151365022</v>
@@ -33691,7 +33643,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.701200929061117</v>
+        <v>1.702797458574228</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.721884888950503</v>
